--- a/data/trans_orig/P17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>56061</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44228</v>
+        <v>41732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70933</v>
+        <v>71050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1136653604626603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08967312885560423</v>
+        <v>0.08461280629720337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1438171654818891</v>
+        <v>0.1440553813663615</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -765,19 +765,19 @@
         <v>84955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69892</v>
+        <v>68459</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102057</v>
+        <v>101010</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1817254496523164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.149504057769945</v>
+        <v>0.1464407439282998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2183079785606001</v>
+        <v>0.2160692189841835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -786,19 +786,19 @@
         <v>141016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119930</v>
+        <v>120582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>164137</v>
+        <v>164733</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1467841939739221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1248359035257181</v>
+        <v>0.1255142273829095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1708512947729383</v>
+        <v>0.171470932615039</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>437153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422281</v>
+        <v>422164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448986</v>
+        <v>451482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8863346395373397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8561828345181109</v>
+        <v>0.8559446186336385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9103268711443957</v>
+        <v>0.9153871937027968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -836,19 +836,19 @@
         <v>382534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365432</v>
+        <v>366479</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>397597</v>
+        <v>399030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8182745503476836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7816920214393999</v>
+        <v>0.7839307810158165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.850495942230055</v>
+        <v>0.8535592560717002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>844</v>
@@ -857,19 +857,19 @@
         <v>819687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>796566</v>
+        <v>795970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840773</v>
+        <v>840121</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8532158060260779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8291487052270617</v>
+        <v>0.828529067384961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8751640964742819</v>
+        <v>0.8744857726170906</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>72849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58141</v>
+        <v>57910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92387</v>
+        <v>89899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09916833274630991</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07914550224312811</v>
+        <v>0.07883120180066254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1257639659286435</v>
+        <v>0.1223769761082654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -982,19 +982,19 @@
         <v>150570</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128551</v>
+        <v>129564</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173911</v>
+        <v>175419</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2407219622661707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2055186446878182</v>
+        <v>0.2071386576143463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2780384028705572</v>
+        <v>0.2804488029389131</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>213</v>
@@ -1003,19 +1003,19 @@
         <v>223420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195706</v>
+        <v>195574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252693</v>
+        <v>251804</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1642672785000776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1438907759423612</v>
+        <v>0.1437940260340392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1857904187389562</v>
+        <v>0.185136706962321</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>661755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>642217</v>
+        <v>644705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>676463</v>
+        <v>676694</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9008316672536901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8742360340713565</v>
+        <v>0.8776230238917346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9208544977568722</v>
+        <v>0.9211687981993378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -1053,19 +1053,19 @@
         <v>474924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451583</v>
+        <v>450075</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496943</v>
+        <v>495930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7592780377338293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7219615971294427</v>
+        <v>0.7195511970610872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7944813553121816</v>
+        <v>0.7928613423856541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1080</v>
@@ -1074,19 +1074,19 @@
         <v>1136678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1107405</v>
+        <v>1108294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1164392</v>
+        <v>1164524</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8357327214999224</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8142095812610437</v>
+        <v>0.8148632930376791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8561092240576388</v>
+        <v>0.8562059739659612</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>94612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79140</v>
+        <v>77190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115866</v>
+        <v>114025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1481393477562002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1239149219674004</v>
+        <v>0.1208607029397907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1814185327390738</v>
+        <v>0.1785359592342231</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -1199,19 +1199,19 @@
         <v>185634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161870</v>
+        <v>162136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209033</v>
+        <v>209494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2699224587284112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2353683313528571</v>
+        <v>0.2357540927019691</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.303945016599351</v>
+        <v>0.3046150873828063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>267</v>
@@ -1220,19 +1220,19 @@
         <v>280246</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>253555</v>
+        <v>252164</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>311575</v>
+        <v>314941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.211283321165525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1911607808082297</v>
+        <v>0.1901116126497499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2349031709904625</v>
+        <v>0.2374407205864459</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>544056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522802</v>
+        <v>524643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>559528</v>
+        <v>561478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8518606522437998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8185814672609262</v>
+        <v>0.8214640407657768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8760850780325996</v>
+        <v>0.8791392970602093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>478</v>
@@ -1270,19 +1270,19 @@
         <v>502098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>478699</v>
+        <v>478238</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525862</v>
+        <v>525596</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7300775412715889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6960549834006499</v>
+        <v>0.6953849126171937</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7646316686471432</v>
+        <v>0.7642459072980309</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1002</v>
@@ -1291,19 +1291,19 @@
         <v>1046153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1014824</v>
+        <v>1011458</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1072844</v>
+        <v>1074235</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.788716678834475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7650968290095376</v>
+        <v>0.7625592794135541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8088392191917703</v>
+        <v>0.8098883873502499</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>81432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67176</v>
+        <v>64378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101106</v>
+        <v>98942</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1568581165556307</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1293965931432245</v>
+        <v>0.1240071666086758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1947537392259163</v>
+        <v>0.1905866496553632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -1416,19 +1416,19 @@
         <v>147464</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>127903</v>
+        <v>128238</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169044</v>
+        <v>169171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2859820702804073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.248045163075977</v>
+        <v>0.2486955788472805</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3278312459444169</v>
+        <v>0.3280792426839856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>220</v>
@@ -1437,19 +1437,19 @@
         <v>228897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202138</v>
+        <v>204674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258194</v>
+        <v>256917</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2212014081316464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1953426321589636</v>
+        <v>0.1977928363245149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2495134732190736</v>
+        <v>0.2482799026033631</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>418041</v>
+        <v>420205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>451971</v>
+        <v>454769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8431418834443694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8052462607740838</v>
+        <v>0.8094133503446368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8706034068567755</v>
+        <v>0.8759928333913243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>359</v>
@@ -1487,19 +1487,19 @@
         <v>368178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346598</v>
+        <v>346471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387739</v>
+        <v>387404</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7140179297195928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6721687540555831</v>
+        <v>0.6719207573160145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7519548369240231</v>
+        <v>0.7513044211527194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>766</v>
@@ -1508,19 +1508,19 @@
         <v>805892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>776595</v>
+        <v>777872</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>832651</v>
+        <v>830115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7787985918683535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7504865267809264</v>
+        <v>0.751720097396637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8046573678410366</v>
+        <v>0.8022071636754852</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>126230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109179</v>
+        <v>109906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145468</v>
+        <v>146646</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3264192134968579</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2823270015109307</v>
+        <v>0.2842074216583853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3761677379178446</v>
+        <v>0.3792141054455334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -1633,19 +1633,19 @@
         <v>150246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131137</v>
+        <v>132249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169546</v>
+        <v>169015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3719100637229135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3246086386856441</v>
+        <v>0.3273594640732622</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4196838188985775</v>
+        <v>0.4183679865324305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>278</v>
@@ -1654,19 +1654,19 @@
         <v>276476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247309</v>
+        <v>251876</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304700</v>
+        <v>305363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3496616041680883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3127742126816992</v>
+        <v>0.3185502890199345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3853571208339695</v>
+        <v>0.3861951793874826</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>260480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>241242</v>
+        <v>240064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>277531</v>
+        <v>276804</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6735807865031421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6238322620821555</v>
+        <v>0.6207858945544665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7176729984890692</v>
+        <v>0.7157925783416147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>247</v>
@@ -1704,19 +1704,19 @@
         <v>253740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>234440</v>
+        <v>234971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>272849</v>
+        <v>271737</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6280899362770865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5803161811014224</v>
+        <v>0.5816320134675694</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6753913613143558</v>
+        <v>0.6726405359267378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>510</v>
@@ -1725,19 +1725,19 @@
         <v>514220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>485996</v>
+        <v>485333</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>543387</v>
+        <v>538820</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6503383958319117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6146428791660304</v>
+        <v>0.6138048206125173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6872257873183008</v>
+        <v>0.6814497109800653</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>134922</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118404</v>
+        <v>118591</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>152000</v>
+        <v>152673</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4626191916495904</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4059813752548441</v>
+        <v>0.406621061604643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.521174830244815</v>
+        <v>0.5234808669833129</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>175</v>
@@ -1850,19 +1850,19 @@
         <v>161337</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>145439</v>
+        <v>144934</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>179649</v>
+        <v>179778</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4704609084660918</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.424100591198577</v>
+        <v>0.4226287964963162</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5238585671740804</v>
+        <v>0.5242354060702876</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>315</v>
@@ -1871,19 +1871,19 @@
         <v>296259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>271719</v>
+        <v>272160</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>319522</v>
+        <v>321999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.46685692181144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4281848546186163</v>
+        <v>0.4288794732758481</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5035143760496895</v>
+        <v>0.5074188132180836</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>156727</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139649</v>
+        <v>138976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173245</v>
+        <v>173058</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5373808083504096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.478825169755185</v>
+        <v>0.4765191330166871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5940186247451559</v>
+        <v>0.5933789383953569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>196</v>
@@ -1921,19 +1921,19 @@
         <v>181597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>163285</v>
+        <v>163156</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197495</v>
+        <v>198000</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5295390915339081</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4761414328259196</v>
+        <v>0.4757645939297122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5758994088014227</v>
+        <v>0.5773712035036838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>358</v>
@@ -1942,19 +1942,19 @@
         <v>338324</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315061</v>
+        <v>312584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362864</v>
+        <v>362423</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5331430781885601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4964856239503104</v>
+        <v>0.4925811867819164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5718151453813836</v>
+        <v>0.5711205267241519</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>93195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80737</v>
+        <v>79733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107422</v>
+        <v>107498</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4440320611994094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3846747170781805</v>
+        <v>0.3798941292700676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5118179164618708</v>
+        <v>0.5121800761253184</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>147</v>
@@ -2067,19 +2067,19 @@
         <v>168163</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151234</v>
+        <v>148255</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188163</v>
+        <v>187116</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5036202525710874</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4529220539334083</v>
+        <v>0.4439989298040502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5635174923653573</v>
+        <v>0.5603816374319959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>247</v>
@@ -2088,19 +2088,19 @@
         <v>261358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>239103</v>
+        <v>234656</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>284448</v>
+        <v>283341</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4806214372272516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.439697150966383</v>
+        <v>0.4315187485732269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5230825425679752</v>
+        <v>0.5210468834851212</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>116688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102461</v>
+        <v>102385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129146</v>
+        <v>130150</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5559679388005906</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4881820835381293</v>
+        <v>0.4878199238746817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6153252829218195</v>
+        <v>0.6201058707299324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>143</v>
@@ -2138,19 +2138,19 @@
         <v>165745</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>145745</v>
+        <v>146792</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>182674</v>
+        <v>185653</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4963797474289126</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4364825076346426</v>
+        <v>0.4396183625680038</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5470779460665915</v>
+        <v>0.5560010701959492</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>263</v>
@@ -2159,19 +2159,19 @@
         <v>282433</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>259343</v>
+        <v>260450</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>304688</v>
+        <v>309135</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5193785627727483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4769174574320248</v>
+        <v>0.4789531165148788</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.560302849033617</v>
+        <v>0.5684812514267731</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>659302</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2013827458166282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1022</v>
@@ -2284,19 +2284,19 @@
         <v>1048370</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3104271149634787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1683</v>
@@ -2305,19 +2305,19 @@
         <v>1707672</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2567518236966544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2614572</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2568287</v>
+        <v>2565433</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2655162</v>
+        <v>2659073</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7986172541833718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7844795589924289</v>
+        <v>0.7836077546472908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.811015403129725</v>
+        <v>0.8122100330797343</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2273</v>
@@ -2355,19 +2355,19 @@
         <v>2328815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2269734</v>
+        <v>2275106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2379460</v>
+        <v>2384371</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6895728850365213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6720786482235538</v>
+        <v>0.6736693037173868</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7045691584982411</v>
+        <v>0.7060232087735783</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4823</v>
@@ -2376,19 +2376,19 @@
         <v>4943387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4868543</v>
+        <v>4869795</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5012076</v>
+        <v>5009639</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7432481763033456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7319950948921027</v>
+        <v>0.7321834738640252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7535756986002703</v>
+        <v>0.7532092738657721</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>58944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46248</v>
+        <v>45412</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74811</v>
+        <v>75379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1300717049973835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1020561124163645</v>
+        <v>0.1002107728993801</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1650870528444814</v>
+        <v>0.1663402226532192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -2744,19 +2744,19 @@
         <v>98230</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82797</v>
+        <v>81403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116391</v>
+        <v>116676</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2305973557089935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1943664308792403</v>
+        <v>0.1910959181160529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2732298077753025</v>
+        <v>0.2738984003410898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -2765,19 +2765,19 @@
         <v>157174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135944</v>
+        <v>135315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180574</v>
+        <v>182010</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1787805964906412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1546321372169556</v>
+        <v>0.1539162193191411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2053974540346494</v>
+        <v>0.2070305770022549</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>394218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>378351</v>
+        <v>377783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406914</v>
+        <v>407750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8699282950026165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8349129471555186</v>
+        <v>0.8336597773467808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8979438875836355</v>
+        <v>0.8997892271006199</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -2815,19 +2815,19 @@
         <v>327752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309591</v>
+        <v>309306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>343185</v>
+        <v>344579</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7694026442910066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7267701922246975</v>
+        <v>0.7261015996589102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8056335691207593</v>
+        <v>0.808904081883947</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>710</v>
@@ -2836,19 +2836,19 @@
         <v>721970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>698570</v>
+        <v>697134</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743200</v>
+        <v>743829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8212194035093588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7946025459653507</v>
+        <v>0.7929694229977452</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8453678627830443</v>
+        <v>0.846083780680859</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>100265</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81979</v>
+        <v>81773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119216</v>
+        <v>119677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1467489825454168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1199851231844525</v>
+        <v>0.1196829443963008</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1744848588245124</v>
+        <v>0.1751604340256238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -2961,19 +2961,19 @@
         <v>164086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142570</v>
+        <v>143397</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>188849</v>
+        <v>188905</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2697011035148154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2343360530343717</v>
+        <v>0.2356942756551033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3104019756110651</v>
+        <v>0.3104934146163945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>252</v>
@@ -2982,19 +2982,19 @@
         <v>264351</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>235909</v>
+        <v>235153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>295560</v>
+        <v>296572</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2046629182820476</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1826423908155621</v>
+        <v>0.1820573157498325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2288246451300102</v>
+        <v>0.2296081131560758</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>582978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>564027</v>
+        <v>563566</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>601264</v>
+        <v>601470</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8532510174545832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8255151411754875</v>
+        <v>0.8248395659743765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8800148768155475</v>
+        <v>0.8803170556036993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>414</v>
@@ -3032,19 +3032,19 @@
         <v>444315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419552</v>
+        <v>419496</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465831</v>
+        <v>465004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7302988964851846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6895980243889349</v>
+        <v>0.6895065853836055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7656639469656285</v>
+        <v>0.7643057243448967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>981</v>
@@ -3053,19 +3053,19 @@
         <v>1027292</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>996083</v>
+        <v>995071</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1055734</v>
+        <v>1056490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7953370817179524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7711753548699898</v>
+        <v>0.7703918868439241</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.817357609184438</v>
+        <v>0.8179426842501674</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>128382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109104</v>
+        <v>109968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152571</v>
+        <v>152311</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1893600443568375</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1609249890449399</v>
+        <v>0.1622000950465232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2250383376083122</v>
+        <v>0.2246547441293647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>182</v>
@@ -3178,19 +3178,19 @@
         <v>193693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>169058</v>
+        <v>171093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218641</v>
+        <v>222456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2732001271549429</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2384536987167855</v>
+        <v>0.2413234280183419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3083900139284579</v>
+        <v>0.3137700651934205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>302</v>
@@ -3199,19 +3199,19 @@
         <v>322075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>290360</v>
+        <v>290930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>353936</v>
+        <v>353543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2322169598587544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2093506631480928</v>
+        <v>0.2097614505236388</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2551890281995274</v>
+        <v>0.2549059037423055</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>549597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525408</v>
+        <v>525668</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>568875</v>
+        <v>568011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8106399556431625</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7749616623916878</v>
+        <v>0.7753452558706353</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8390750109550601</v>
+        <v>0.8377999049534769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>483</v>
@@ -3249,19 +3249,19 @@
         <v>515284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>490336</v>
+        <v>486521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539919</v>
+        <v>537884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7267998728450571</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6916099860715421</v>
+        <v>0.6862299348065796</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7615463012832144</v>
+        <v>0.7586765719816581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1011</v>
@@ -3270,19 +3270,19 @@
         <v>1064881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1033020</v>
+        <v>1033413</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1096596</v>
+        <v>1096026</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7677830401412457</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7448109718004725</v>
+        <v>0.7450940962576947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7906493368519072</v>
+        <v>0.7902385494763612</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>113735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94936</v>
+        <v>95159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135588</v>
+        <v>134887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.185050625806081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1544631753618068</v>
+        <v>0.1548267160265134</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2206053405012185</v>
+        <v>0.2194652797188657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -3395,19 +3395,19 @@
         <v>193542</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>170265</v>
+        <v>170573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>219781</v>
+        <v>218363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3146422112044819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.276800986785334</v>
+        <v>0.2773017095378764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3572996895782178</v>
+        <v>0.3549948476823525</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -3416,19 +3416,19 @@
         <v>307277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276621</v>
+        <v>274453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>340768</v>
+        <v>339434</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2498727846311338</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2249436657086945</v>
+        <v>0.2231806930604761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2771071099009084</v>
+        <v>0.2760221321904375</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>500882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>479029</v>
+        <v>479730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>519681</v>
+        <v>519458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.814949374193919</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7793946594987815</v>
+        <v>0.7805347202811342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8455368246381934</v>
+        <v>0.8451732839734867</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -3466,19 +3466,19 @@
         <v>421575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>395336</v>
+        <v>396754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>444852</v>
+        <v>444544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6853577887955181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6427003104217822</v>
+        <v>0.6450051523176475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.723199013214666</v>
+        <v>0.7226982904621236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>816</v>
@@ -3487,19 +3487,19 @@
         <v>922457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>888966</v>
+        <v>890300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>953113</v>
+        <v>955281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7501272153688662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7228928900990917</v>
+        <v>0.7239778678095625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7750563342913055</v>
+        <v>0.7768193069395239</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>129270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111650</v>
+        <v>108532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150482</v>
+        <v>149595</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3031720704412919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2618498747904742</v>
+        <v>0.2545369277248029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3529217839148521</v>
+        <v>0.3508412771407541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -3612,19 +3612,19 @@
         <v>161701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141693</v>
+        <v>140864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183161</v>
+        <v>182660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3611017570631147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3164201148295108</v>
+        <v>0.3145681049716132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4090233694210948</v>
+        <v>0.4079044720610616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -3633,19 +3633,19 @@
         <v>290971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>262872</v>
+        <v>260152</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>317457</v>
+        <v>317763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3328462863916156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3007040169079294</v>
+        <v>0.2975919622804696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.363144403376481</v>
+        <v>0.363494676167417</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>297120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275908</v>
+        <v>276795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314740</v>
+        <v>317858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6968279295587081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6470782160851473</v>
+        <v>0.6491587228592459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7381501252095255</v>
+        <v>0.7454630722751969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -3683,19 +3683,19 @@
         <v>286099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>264639</v>
+        <v>265140</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306107</v>
+        <v>306936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6388982429368852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5909766305789053</v>
+        <v>0.5920955279389383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6835798851704892</v>
+        <v>0.6854318950283869</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>528</v>
@@ -3704,19 +3704,19 @@
         <v>583219</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>556733</v>
+        <v>556427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>611318</v>
+        <v>614038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6671537136083845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6368555966235191</v>
+        <v>0.6365053238325831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6992959830920709</v>
+        <v>0.7024080377195305</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>135265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116769</v>
+        <v>116565</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153208</v>
+        <v>154238</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4380669415103955</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3781677559536841</v>
+        <v>0.3775058453546388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4961799089518727</v>
+        <v>0.4995128198812634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -3829,19 +3829,19 @@
         <v>153822</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>135741</v>
+        <v>135154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172534</v>
+        <v>172135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4357734185902106</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3845491818683478</v>
+        <v>0.3828879635982498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4887838922210646</v>
+        <v>0.4876523981746307</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>276</v>
@@ -3850,19 +3850,19 @@
         <v>289087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>262182</v>
+        <v>263038</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>316915</v>
+        <v>313998</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4368435665489721</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3961868357816645</v>
+        <v>0.3974802529033419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4788949379162728</v>
+        <v>0.4744875682790575</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>173511</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155568</v>
+        <v>154538</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192007</v>
+        <v>192211</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5619330584896045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5038200910481274</v>
+        <v>0.5004871801187365</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6218322440463159</v>
+        <v>0.6224941546453612</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -3900,19 +3900,19 @@
         <v>199165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180453</v>
+        <v>180852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>217246</v>
+        <v>217833</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5642265814097894</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5112161077789356</v>
+        <v>0.5123476018253694</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6154508181316523</v>
+        <v>0.6171120364017504</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -3921,19 +3921,19 @@
         <v>372676</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>344848</v>
+        <v>347765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>399581</v>
+        <v>398725</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5631564334510279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5211050620837272</v>
+        <v>0.5255124317209424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6038131642183355</v>
+        <v>0.6025197470966581</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>114280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96704</v>
+        <v>96370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130947</v>
+        <v>130908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4595154052516272</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3888455958343222</v>
+        <v>0.3874998931577762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.526534131609545</v>
+        <v>0.5263772514793785</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -4046,19 +4046,19 @@
         <v>190496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>169505</v>
+        <v>171208</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>208929</v>
+        <v>210521</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4910023413380146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4368971636001069</v>
+        <v>0.4412879515424721</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5385129614762044</v>
+        <v>0.542617199905994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>272</v>
@@ -4067,19 +4067,19 @@
         <v>304776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>277733</v>
+        <v>280633</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>330970</v>
+        <v>334093</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4787029054291497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4362266284741187</v>
+        <v>0.4407816864918038</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5198445787993794</v>
+        <v>0.5247505049539941</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>134416</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>117749</v>
+        <v>117788</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>151992</v>
+        <v>152326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5404845947483728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.473465868390455</v>
+        <v>0.4736227485206214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6111544041656778</v>
+        <v>0.6125001068422238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>178</v>
@@ -4117,19 +4117,19 @@
         <v>197478</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>179045</v>
+        <v>177453</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>218469</v>
+        <v>216766</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5089976586619854</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4614870385237955</v>
+        <v>0.4573828000940057</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5631028363998928</v>
+        <v>0.5587120484575279</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>298</v>
@@ -4138,19 +4138,19 @@
         <v>331895</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>305701</v>
+        <v>302578</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>358938</v>
+        <v>356038</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5212970945708503</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4801554212006207</v>
+        <v>0.4752494950460059</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5637733715258814</v>
+        <v>0.5592183135081962</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>780140</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2285881624572763</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1076</v>
@@ -4263,19 +4263,19 @@
         <v>1155571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3257664434573518</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1793</v>
@@ -4284,19 +4284,19 @@
         <v>1935711</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2781153849921248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2632723</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2582083</v>
+        <v>2578574</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2685690</v>
+        <v>2684944</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7714118375427237</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7565737674272731</v>
+        <v>0.7555456705398877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7869316671805479</v>
+        <v>0.7867129869698759</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2212</v>
@@ -4334,19 +4334,19 @@
         <v>2391667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2332724</v>
+        <v>2336014</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2452284</v>
+        <v>2446243</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6742335565426482</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6576171054952259</v>
+        <v>0.6585444983375633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6913221687934981</v>
+        <v>0.6896191933788437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4692</v>
@@ -4355,19 +4355,19 @@
         <v>5024390</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4948154</v>
+        <v>4940882</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5110046</v>
+        <v>5100897</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7218846150078752</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7109313174713394</v>
+        <v>0.7098864881601837</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.734191385313395</v>
+        <v>0.7328768227191683</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>68066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54469</v>
+        <v>53617</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85355</v>
+        <v>84224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1622689850115805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1298544101329579</v>
+        <v>0.1278235332628013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2034852267143458</v>
+        <v>0.2007889614363156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -4723,19 +4723,19 @@
         <v>93337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76686</v>
+        <v>77547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111959</v>
+        <v>110155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2358442665565074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1937725126578624</v>
+        <v>0.195946147390384</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2829006684833925</v>
+        <v>0.2783413949162744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>162</v>
@@ -4744,19 +4744,19 @@
         <v>161402</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140928</v>
+        <v>142147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>184002</v>
+        <v>184206</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1979867754837535</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1728716523635332</v>
+        <v>0.174366589316011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2257093574656662</v>
+        <v>0.2259587609173984</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>351397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334108</v>
+        <v>335239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364994</v>
+        <v>365846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8377310149884195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7965147732856542</v>
+        <v>0.7992110385636845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.870145589867042</v>
+        <v>0.8721764667371987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>308</v>
@@ -4794,19 +4794,19 @@
         <v>302418</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283796</v>
+        <v>285600</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>319069</v>
+        <v>318208</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7641557334434926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7170993315166072</v>
+        <v>0.7216586050837256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8062274873421376</v>
+        <v>0.804053852609616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>635</v>
@@ -4815,19 +4815,19 @@
         <v>653816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>631216</v>
+        <v>631012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>674290</v>
+        <v>673071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8020132245162465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7742906425343338</v>
+        <v>0.7740412390826016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8271283476364667</v>
+        <v>0.8256334106839889</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>91255</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75692</v>
+        <v>75734</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110843</v>
+        <v>109434</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.154538787157983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1281841569554485</v>
+        <v>0.1282554466623125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1877112830238117</v>
+        <v>0.1853253311937407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -4940,19 +4940,19 @@
         <v>158054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138724</v>
+        <v>137953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>178955</v>
+        <v>178330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2804637479151281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.246163988094137</v>
+        <v>0.2447952601622151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3175532950359176</v>
+        <v>0.3164443130368024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>247</v>
@@ -4961,19 +4961,19 @@
         <v>249308</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>222740</v>
+        <v>220934</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>278876</v>
+        <v>276810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2160307801505733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1930090935802944</v>
+        <v>0.1914443766625293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2416520743711856</v>
+        <v>0.239861301447778</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>499241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479653</v>
+        <v>481062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514804</v>
+        <v>514762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.845461212842017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8122887169761882</v>
+        <v>0.8146746688062594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8718158430445513</v>
+        <v>0.8717445533376877</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -5011,19 +5011,19 @@
         <v>405490</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>384589</v>
+        <v>385214</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>424820</v>
+        <v>425591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7195362520848719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6824467049640824</v>
+        <v>0.6835556869631977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.753836011905863</v>
+        <v>0.7552047398377849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -5032,19 +5032,19 @@
         <v>904732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>875164</v>
+        <v>877230</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>931300</v>
+        <v>933106</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7839692198494268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7583479256288144</v>
+        <v>0.7601386985522219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8069909064197056</v>
+        <v>0.8085556233374707</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>146969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122686</v>
+        <v>123096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166542</v>
+        <v>168751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2196520674284454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.183361230371049</v>
+        <v>0.1839739484452543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2489062727773125</v>
+        <v>0.2522070869916574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -5157,19 +5157,19 @@
         <v>173957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152155</v>
+        <v>152245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197183</v>
+        <v>197874</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2630195339155653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2300545727289255</v>
+        <v>0.230190177034924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2981354713506371</v>
+        <v>0.2991804281554686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>310</v>
@@ -5178,19 +5178,19 @@
         <v>320926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289291</v>
+        <v>291378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>352091</v>
+        <v>356884</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2412101391637825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2174329684004989</v>
+        <v>0.2190013158590597</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2646343045315556</v>
+        <v>0.2682364903377028</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>522128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502555</v>
+        <v>500346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546411</v>
+        <v>546001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7803479325715545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7510937272226877</v>
+        <v>0.7477929130083425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.816638769628951</v>
+        <v>0.8160260515547456</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>489</v>
@@ -5228,19 +5228,19 @@
         <v>487429</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>464203</v>
+        <v>463512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>509231</v>
+        <v>509141</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7369804660844347</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7018645286493629</v>
+        <v>0.7008195718445315</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7699454272710744</v>
+        <v>0.7698098229650759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>993</v>
@@ -5249,19 +5249,19 @@
         <v>1009557</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>978392</v>
+        <v>973599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1041192</v>
+        <v>1039105</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7587898608362175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7353656954684445</v>
+        <v>0.7317635096622972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.782567031599501</v>
+        <v>0.7809986841409402</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>166339</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142915</v>
+        <v>146290</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189959</v>
+        <v>189358</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2574711408458352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2212142445533257</v>
+        <v>0.2264390039826119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2940322688580377</v>
+        <v>0.2931020720704166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -5374,19 +5374,19 @@
         <v>181785</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160888</v>
+        <v>159157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>208098</v>
+        <v>205402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2800675901106067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2478726361525954</v>
+        <v>0.2452055607758679</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3206054033612702</v>
+        <v>0.3164517349253202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>316</v>
@@ -5395,19 +5395,19 @@
         <v>348124</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>317443</v>
+        <v>315782</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>382028</v>
+        <v>382015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2687957862934121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2451062742259639</v>
+        <v>0.2438232213953544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2949737141062968</v>
+        <v>0.2949636619296767</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>479709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456089</v>
+        <v>456690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>503133</v>
+        <v>499758</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7425288591541648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7059677311419624</v>
+        <v>0.7068979279295836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7787857554466744</v>
+        <v>0.7735609960173883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -5445,19 +5445,19 @@
         <v>467292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440979</v>
+        <v>443675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488189</v>
+        <v>489920</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7199324098893932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.67939459663873</v>
+        <v>0.6835482650746798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7521273638474046</v>
+        <v>0.7547944392241321</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>868</v>
@@ -5466,19 +5466,19 @@
         <v>947001</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>913097</v>
+        <v>913110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>977682</v>
+        <v>979343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7312042137065879</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7050262858937032</v>
+        <v>0.7050363380703233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7548937257740361</v>
+        <v>0.7561767786046456</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>144092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125221</v>
+        <v>123112</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168069</v>
+        <v>166727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3014991354458178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2620134467253341</v>
+        <v>0.2576010321165383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3516687655333239</v>
+        <v>0.3488602872114783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -5591,19 +5591,19 @@
         <v>196252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>171978</v>
+        <v>173551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219132</v>
+        <v>219655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3949939300362948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3461367774331201</v>
+        <v>0.3493023272806377</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4410435688821881</v>
+        <v>0.4420970247493271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>301</v>
@@ -5612,19 +5612,19 @@
         <v>340344</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>308560</v>
+        <v>308736</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>372546</v>
+        <v>370911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3491544164861947</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3165475689493692</v>
+        <v>0.3167282933012174</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3821895737304752</v>
+        <v>0.3805120621293283</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>333826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309849</v>
+        <v>311191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>352697</v>
+        <v>354806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6985008645541821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.648331234466676</v>
+        <v>0.6511397127885218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7379865532746659</v>
+        <v>0.7423989678834617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -5662,19 +5662,19 @@
         <v>300597</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>277717</v>
+        <v>277194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>324871</v>
+        <v>323298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6050060699637052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.558956431117812</v>
+        <v>0.5579029752506729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6538632225668799</v>
+        <v>0.6506976727193623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>556</v>
@@ -5683,19 +5683,19 @@
         <v>634423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>602221</v>
+        <v>603856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>666207</v>
+        <v>666031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6508455835138053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6178104262695245</v>
+        <v>0.6194879378706714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6834524310506308</v>
+        <v>0.6832717066987825</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>131156</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114510</v>
+        <v>113068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150100</v>
+        <v>150066</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3922946719733315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3425053516269765</v>
+        <v>0.3381918420469212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4489585310355405</v>
+        <v>0.4488571925646946</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -5808,19 +5808,19 @@
         <v>185695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>165879</v>
+        <v>165675</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205257</v>
+        <v>205384</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4915663783024006</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4391102447090142</v>
+        <v>0.4385694417932827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5433504947476558</v>
+        <v>0.5436860601550008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>301</v>
@@ -5829,19 +5829,19 @@
         <v>316851</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291913</v>
+        <v>289593</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341419</v>
+        <v>341980</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4449579212414287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4099371274531141</v>
+        <v>0.4066785243073945</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4794584395085002</v>
+        <v>0.480247333754371</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>203174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184230</v>
+        <v>184264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219820</v>
+        <v>221262</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6077053280266685</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5510414689644595</v>
+        <v>0.5511428074353053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6574946483730233</v>
+        <v>0.6618081579530788</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>181</v>
@@ -5879,19 +5879,19 @@
         <v>192067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172505</v>
+        <v>172378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>211883</v>
+        <v>212087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5084336216975994</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.456649505252344</v>
+        <v>0.4563139398449993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5608897552909857</v>
+        <v>0.5614305582067173</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>378</v>
@@ -5900,19 +5900,19 @@
         <v>395241</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>370673</v>
+        <v>370112</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>420179</v>
+        <v>422499</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5550420787585714</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5205415604914998</v>
+        <v>0.5197526662456291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5900628725468858</v>
+        <v>0.5933214756926057</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>107726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94122</v>
+        <v>94630</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121673</v>
+        <v>123290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4191721311959876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3662368017696561</v>
+        <v>0.3682112029403642</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4734396019842614</v>
+        <v>0.4797332504152339</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -6025,19 +6025,19 @@
         <v>175239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154370</v>
+        <v>152696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198514</v>
+        <v>198681</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4379126244511994</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3857614883794357</v>
+        <v>0.3815786715529201</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4960744564965346</v>
+        <v>0.4964939091853995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -6046,19 +6046,19 @@
         <v>282965</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>256199</v>
+        <v>253517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309463</v>
+        <v>309360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4305837882468112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3898543032203998</v>
+        <v>0.3857728204784992</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.470904569642337</v>
+        <v>0.4707486773466172</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>149272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>135325</v>
+        <v>133708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>162876</v>
+        <v>162368</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5808278688040125</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5265603980157384</v>
+        <v>0.5202667495847659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6337631982303437</v>
+        <v>0.6317887970596358</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -6096,19 +6096,19 @@
         <v>224930</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>201655</v>
+        <v>201488</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>245799</v>
+        <v>247473</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5620873755488006</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5039255435034653</v>
+        <v>0.5035060908146003</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6142385116205643</v>
+        <v>0.6184213284470798</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>347</v>
@@ -6117,19 +6117,19 @@
         <v>374202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>347704</v>
+        <v>347807</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>400968</v>
+        <v>403650</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5694162117531888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.529095430357663</v>
+        <v>0.5292513226533828</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6101456967796</v>
+        <v>0.6142271795215009</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>855602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2520664466299309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1077</v>
@@ -6242,19 +6242,19 @@
         <v>1164320</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3284823737676889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1893</v>
@@ -6263,19 +6263,19 @@
         <v>2019921</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2911014178871146</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2538748</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2485000</v>
+        <v>2489849</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2584914</v>
+        <v>2590828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7479335533700691</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7320988397550976</v>
+        <v>0.7335274039446937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7615344140505342</v>
+        <v>0.7632766943750671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2261</v>
@@ -6313,19 +6313,19 @@
         <v>2380222</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2323051</v>
+        <v>2326045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2434162</v>
+        <v>2439965</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6715176262323111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6553881684065064</v>
+        <v>0.6562330096962029</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6867352550194089</v>
+        <v>0.6883723815285387</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4676</v>
@@ -6334,19 +6334,19 @@
         <v>4918971</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4842091</v>
+        <v>4838955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4996027</v>
+        <v>4996991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7088985821128855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6978190064747887</v>
+        <v>0.6973670428545508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.720003618000835</v>
+        <v>0.7201425128028914</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>28233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15903</v>
+        <v>15420</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48761</v>
+        <v>47844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06923446652578545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03899670241615816</v>
+        <v>0.03781430241171849</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.119573462848565</v>
+        <v>0.1173241457772158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -6702,19 +6702,19 @@
         <v>65113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48678</v>
+        <v>47326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86830</v>
+        <v>87833</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1796167836606543</v>
+        <v>0.1796167836606542</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1342799200383331</v>
+        <v>0.1305489097827616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395240620913685</v>
+        <v>0.2422894036230459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -6723,19 +6723,19 @@
         <v>93347</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68745</v>
+        <v>71287</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119891</v>
+        <v>122330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1211813055459483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08924339301763896</v>
+        <v>0.09254418727329063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1556407719075787</v>
+        <v>0.158806729311668</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>379560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359032</v>
+        <v>359949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>391890</v>
+        <v>392373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9307655334742148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.880426537151435</v>
+        <v>0.8826758542227843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9610032975838417</v>
+        <v>0.9621856975882815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -6773,19 +6773,19 @@
         <v>297399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275682</v>
+        <v>274679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313834</v>
+        <v>315186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8203832163393459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604759379086313</v>
+        <v>0.757710596376954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8657200799616669</v>
+        <v>0.8694510902172388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -6794,19 +6794,19 @@
         <v>676958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>650414</v>
+        <v>647975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>701560</v>
+        <v>699018</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8788186944540517</v>
+        <v>0.8788186944540516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8443592280924211</v>
+        <v>0.8411932706883319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9107566069823609</v>
+        <v>0.9074558127267092</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>81752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62947</v>
+        <v>63458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104689</v>
+        <v>105838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1714271533934395</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.131995735583914</v>
+        <v>0.1330664312955083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2195243556904142</v>
+        <v>0.2219337579713755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -6919,19 +6919,19 @@
         <v>110784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87519</v>
+        <v>92242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129099</v>
+        <v>129972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2221264470790376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1754788189854515</v>
+        <v>0.1849487799844579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2588472781570582</v>
+        <v>0.2605983513987248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -6940,19 +6940,19 @@
         <v>192536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162841</v>
+        <v>164347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224604</v>
+        <v>225084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1973446383275062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1669076452552164</v>
+        <v>0.1684510550917711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2302134241853512</v>
+        <v>0.2307047538028448</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>395138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372201</v>
+        <v>371052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413943</v>
+        <v>413432</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8285728466065604</v>
+        <v>0.8285728466065605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7804756443095858</v>
+        <v>0.7780662420286245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8680042644160861</v>
+        <v>0.8669335687044918</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>357</v>
@@ -6990,19 +6990,19 @@
         <v>387961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>369646</v>
+        <v>368773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411226</v>
+        <v>406503</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7778735529209624</v>
+        <v>0.7778735529209623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7411527218429417</v>
+        <v>0.7394016486012751</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8245211810145484</v>
+        <v>0.8150512200155415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>608</v>
@@ -7011,19 +7011,19 @@
         <v>783099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751031</v>
+        <v>750551</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>812794</v>
+        <v>811288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8026553616724937</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7697865758146485</v>
+        <v>0.7692952461971549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8330923547447835</v>
+        <v>0.8315489449082288</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>92110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73979</v>
+        <v>72502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114291</v>
+        <v>111396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1483637621696866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1191602256819811</v>
+        <v>0.1167810647730058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1840924520993754</v>
+        <v>0.179428902855532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -7136,19 +7136,19 @@
         <v>134536</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119929</v>
+        <v>117336</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153706</v>
+        <v>152945</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2162478340163218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.192768669150981</v>
+        <v>0.1886004763040331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2470601187746888</v>
+        <v>0.2458375521544504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>262</v>
@@ -7157,19 +7157,19 @@
         <v>226646</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>202722</v>
+        <v>200714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>252363</v>
+        <v>254103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1823413636009291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1630937859561073</v>
+        <v>0.1614782373458566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2030309130753516</v>
+        <v>0.2044309764524855</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>528727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>506546</v>
+        <v>509441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546858</v>
+        <v>548335</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8516362378303134</v>
+        <v>0.8516362378303136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8159075479006246</v>
+        <v>0.8205710971444679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8808397743180189</v>
+        <v>0.8832189352269941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -7207,19 +7207,19 @@
         <v>487603</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>468433</v>
+        <v>469194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>502210</v>
+        <v>504803</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7837521659836783</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7529398812253111</v>
+        <v>0.7541624478455499</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.807231330849019</v>
+        <v>0.811399523695967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1130</v>
@@ -7228,19 +7228,19 @@
         <v>1016330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>990613</v>
+        <v>988873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1040254</v>
+        <v>1042262</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8176586363990709</v>
+        <v>0.817658636399071</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7969690869246484</v>
+        <v>0.7955690235475144</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8369062140438926</v>
+        <v>0.8385217626541434</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>140816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121128</v>
+        <v>120787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164004</v>
+        <v>165555</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2009883867206131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1728878227812105</v>
+        <v>0.1724002582728336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2340846051653075</v>
+        <v>0.2362985643512795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>271</v>
@@ -7353,19 +7353,19 @@
         <v>178541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159804</v>
+        <v>161344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196902</v>
+        <v>197366</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2424333380328501</v>
+        <v>0.24243333803285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2169904761986852</v>
+        <v>0.2190816621755264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2673646760739268</v>
+        <v>0.2679951639888466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>398</v>
@@ -7374,19 +7374,19 @@
         <v>319357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>289619</v>
+        <v>291300</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>348579</v>
+        <v>351653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2222276363142588</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2015338971814177</v>
+        <v>0.20270353978885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2425620046094725</v>
+        <v>0.2447011351663843</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>559801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536613</v>
+        <v>535062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>579489</v>
+        <v>579830</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7990116132793869</v>
+        <v>0.7990116132793867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7659153948346921</v>
+        <v>0.7637014356487204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8271121772187892</v>
+        <v>0.8275997417271664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>869</v>
@@ -7424,19 +7424,19 @@
         <v>557914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>539553</v>
+        <v>539089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>576651</v>
+        <v>575111</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7575666619671499</v>
+        <v>0.7575666619671497</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7326353239260731</v>
+        <v>0.7320048360111535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7830095238013148</v>
+        <v>0.7809183378244736</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1407</v>
@@ -7445,19 +7445,19 @@
         <v>1117715</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1088493</v>
+        <v>1085419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1147453</v>
+        <v>1145772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7777723636857412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7574379953905275</v>
+        <v>0.7552988648336157</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7984661028185823</v>
+        <v>0.7972964602111499</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>142122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124294</v>
+        <v>121502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162025</v>
+        <v>161654</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2332366492902833</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2039793243775583</v>
+        <v>0.1993967246072873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2658996990053722</v>
+        <v>0.2652917748301227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -7570,19 +7570,19 @@
         <v>157809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140886</v>
+        <v>141392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173822</v>
+        <v>175149</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2593801002514295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.231564227682348</v>
+        <v>0.2323962845550782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2856999055200108</v>
+        <v>0.2878806329567427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>405</v>
@@ -7591,19 +7591,19 @@
         <v>299931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>275629</v>
+        <v>274122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>327671</v>
+        <v>327494</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2462983067035689</v>
+        <v>0.2462983067035688</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2263420874495263</v>
+        <v>0.2251045572970668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2690780295158118</v>
+        <v>0.2689326368505642</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>467224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>447321</v>
+        <v>447692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485052</v>
+        <v>487844</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7667633507097166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7341003009946279</v>
+        <v>0.7347082251698772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7960206756224416</v>
+        <v>0.8006032753927126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>750</v>
@@ -7641,19 +7641,19 @@
         <v>450600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434587</v>
+        <v>433260</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>467523</v>
+        <v>467017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7406198997485703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7143000944799891</v>
+        <v>0.7121193670432574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7684357723176517</v>
+        <v>0.7676037154449219</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1259</v>
@@ -7662,19 +7662,19 @@
         <v>917824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>890084</v>
+        <v>890261</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>942126</v>
+        <v>943633</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7537016932964312</v>
+        <v>0.7537016932964311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7309219704841883</v>
+        <v>0.731067363149436</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7736579125504736</v>
+        <v>0.774895442702933</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>115706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101143</v>
+        <v>99224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>132241</v>
+        <v>131245</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2847004588502034</v>
+        <v>0.2847004588502035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2488680844616048</v>
+        <v>0.2441470344311429</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3253855448864002</v>
+        <v>0.3229362328956263</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>248</v>
@@ -7787,19 +7787,19 @@
         <v>135282</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120579</v>
+        <v>122251</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148724</v>
+        <v>149530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3087356646972064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2751807297607643</v>
+        <v>0.2789962950398949</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3394123260630165</v>
+        <v>0.3412526450634065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>407</v>
@@ -7808,19 +7808,19 @@
         <v>250987</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>227801</v>
+        <v>231483</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>268484</v>
+        <v>274263</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2971700925734283</v>
+        <v>0.2971700925734282</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2697174465758185</v>
+        <v>0.2740772212370812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.317886453511414</v>
+        <v>0.3247287312150974</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>290706</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274171</v>
+        <v>275167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305269</v>
+        <v>307188</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7152995411497964</v>
+        <v>0.7152995411497965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6746144551135997</v>
+        <v>0.6770637671043737</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7511319155383952</v>
+        <v>0.7558529655688569</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>577</v>
@@ -7858,19 +7858,19 @@
         <v>302898</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>289456</v>
+        <v>288650</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>317601</v>
+        <v>315929</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6912643353027937</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6605876739369836</v>
+        <v>0.6587473549365936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7248192702392359</v>
+        <v>0.7210037049601051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>987</v>
@@ -7879,19 +7879,19 @@
         <v>593605</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>576108</v>
+        <v>570329</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>616791</v>
+        <v>613109</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7028299074265719</v>
+        <v>0.7028299074265718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.682113546488586</v>
+        <v>0.6752712687849026</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7302825534241814</v>
+        <v>0.7259227787629188</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>89886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77991</v>
+        <v>76706</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103100</v>
+        <v>103284</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.290618083905224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2521590902063606</v>
+        <v>0.2480058826289518</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3333424729761607</v>
+        <v>0.3339365584094726</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -8004,19 +8004,19 @@
         <v>144554</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129526</v>
+        <v>130041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159689</v>
+        <v>160089</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.311413168346734</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2790388529177756</v>
+        <v>0.2801484180752338</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3440187714153701</v>
+        <v>0.3448807545833487</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>391</v>
@@ -8025,19 +8025,19 @@
         <v>234440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>216165</v>
+        <v>214100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>255322</v>
+        <v>255649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3030977995462606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2794706328688421</v>
+        <v>0.2768018206887198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3300955663729693</v>
+        <v>0.3305179319251789</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>219407</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>206193</v>
+        <v>206009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>231302</v>
+        <v>232587</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.709381916094776</v>
+        <v>0.7093819160947761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6666575270238394</v>
+        <v>0.6660634415905273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7478409097936396</v>
+        <v>0.7519941173710483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>620</v>
@@ -8075,19 +8075,19 @@
         <v>319633</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>304498</v>
+        <v>304098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>334661</v>
+        <v>334146</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6885868316532661</v>
+        <v>0.6885868316532658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.65598122858463</v>
+        <v>0.6551192454166509</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7209611470822245</v>
+        <v>0.7198515819247662</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>946</v>
@@ -8096,19 +8096,19 @@
         <v>539039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>518157</v>
+        <v>517830</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>557314</v>
+        <v>559379</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6969022004537392</v>
+        <v>0.6969022004537393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6699044336270308</v>
+        <v>0.669482068074821</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7205293671311578</v>
+        <v>0.7231981793112802</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>690624</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1955784779193475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1351</v>
@@ -8221,19 +8221,19 @@
         <v>926620</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2483818544668358</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2063</v>
@@ -8242,19 +8242,19 @@
         <v>1617244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2227052603626824</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2840564</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2791667</v>
+        <v>2783457</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2890431</v>
+        <v>2885688</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8044215220806527</v>
+        <v>0.8044215220806525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7905744014192768</v>
+        <v>0.788249399118221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8185435389360294</v>
+        <v>0.8172004671496091</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4006</v>
@@ -8292,19 +8292,19 @@
         <v>2804006</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2757306</v>
+        <v>2752683</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2847183</v>
+        <v>2849376</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7516181455331641</v>
+        <v>0.7516181455331642</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7390999718620542</v>
+        <v>0.7378608558351901</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7631918749978994</v>
+        <v>0.7637796315627151</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6668</v>
@@ -8313,19 +8313,19 @@
         <v>5644570</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5580233</v>
+        <v>5570678</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5711943</v>
+        <v>5710876</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7772947396373175</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7684351489894958</v>
+        <v>0.7671193868023444</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7865724074925319</v>
+        <v>0.7864254944634035</v>
       </c>
     </row>
     <row r="27">
